--- a/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/REGION/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_REGION.xlsx
+++ b/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/REGION/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_REGION.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>3.4551943555761402</v>
       </c>
       <c r="E2" s="1">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F2">
         <v>4.7565296399300703</v>
